--- a/src/main/resources/Registration and Result entry Template  19 May 2023.xlsx
+++ b/src/main/resources/Registration and Result entry Template  19 May 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PathCare_Projects\TrakCareTesting\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395D7E72-B5E0-4B70-AE1D-2E274E6999A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC128FB-8BBA-4590-A2D6-28F4ABED148A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="944" activeTab="1" xr2:uid="{D847BC9C-8E92-4B36-B0AB-79A711C1B590}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="944" activeTab="2" xr2:uid="{D847BC9C-8E92-4B36-B0AB-79A711C1B590}"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="13" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="568">
   <si>
     <t>PK</t>
   </si>
@@ -1649,27 +1649,15 @@
     <t>TC0000000564</t>
   </si>
   <si>
-    <t xml:space="preserve">TC0000000570 </t>
-  </si>
-  <si>
     <t xml:space="preserve">TC0000001226 </t>
   </si>
   <si>
-    <t xml:space="preserve">TC0000001233 </t>
-  </si>
-  <si>
     <t xml:space="preserve">TC0000001243 </t>
   </si>
   <si>
     <t xml:space="preserve">TC0000001245 </t>
   </si>
   <si>
-    <t xml:space="preserve">TC0000001229 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC0000000557 </t>
-  </si>
-  <si>
     <t>n-5</t>
   </si>
   <si>
@@ -1677,12 +1665,6 @@
   </si>
   <si>
     <t>21,59</t>
-  </si>
-  <si>
-    <t>45,72</t>
-  </si>
-  <si>
-    <t>3,13</t>
   </si>
   <si>
     <t>Popup</t>
@@ -2492,7 +2474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911DF472-7B39-43CF-8D1C-70E3AFDB12F5}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -3039,7 +3021,7 @@
         <v>335</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3056,7 +3038,7 @@
         <v>336</v>
       </c>
       <c r="E2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -3137,7 +3119,7 @@
         <v>343</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>465</v>
@@ -3167,10 +3149,10 @@
         <v>228</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="S2" s="17" t="s">
         <v>95</v>
@@ -3439,10 +3421,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3538,7 +3520,7 @@
         <v>343</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -3564,10 +3546,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E3" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -3750,7 +3732,7 @@
         <v>314</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -4285,64 +4267,64 @@
         <v>343</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -4356,13 +4338,13 @@
         <v>368</v>
       </c>
       <c r="D3" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E3" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="O3" s="36">
         <v>-1</v>
@@ -4409,13 +4391,13 @@
         <v>368</v>
       </c>
       <c r="D4" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E4" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="O4" s="36">
         <v>25.5</v>
@@ -4462,16 +4444,16 @@
         <v>368</v>
       </c>
       <c r="D5" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H5">
         <v>200000</v>
@@ -4486,16 +4468,16 @@
         <v>368</v>
       </c>
       <c r="D6" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E6" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="G6" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H6">
         <v>200</v>
@@ -4510,19 +4492,19 @@
         <v>368</v>
       </c>
       <c r="D7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F7" s="37" t="s">
         <v>566</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
+        <v>561</v>
+      </c>
+      <c r="H7" s="36" t="s">
         <v>567</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="G7" t="s">
-        <v>567</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>573</v>
       </c>
       <c r="K7" s="36"/>
     </row>
@@ -4534,13 +4516,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E8" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="G8" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H8">
         <v>1994063</v>
@@ -4639,8 +4621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2688FC0E-E8B8-49FE-A313-F7CE395032AF}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5153,7 +5135,7 @@
         <v>128</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -6151,37 +6133,37 @@
         <v>382</v>
       </c>
       <c r="I1" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>538</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>540</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>542</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>543</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>544</v>
       </c>
       <c r="T1"/>
       <c r="U1"/>
@@ -6197,7 +6179,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="I2" s="2">
         <v>68.2</v>
@@ -6230,7 +6212,7 @@
         <v>2.1</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -6394,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6405,7 +6387,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6416,7 +6398,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6427,7 +6409,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6438,7 +6420,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6449,7 +6431,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -6460,7 +6442,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -6582,13 +6564,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F3" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="L3" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -6602,13 +6584,13 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="L4" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -6622,13 +6604,13 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F5" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="L5" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -6642,13 +6624,13 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F6" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="L6" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -6662,13 +6644,13 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F7" t="s">
         <v>321</v>
       </c>
       <c r="L7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -6682,13 +6664,13 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
+        <v>520</v>
+      </c>
+      <c r="F8" t="s">
+        <v>522</v>
+      </c>
+      <c r="L8" t="s">
         <v>526</v>
-      </c>
-      <c r="F8" t="s">
-        <v>528</v>
-      </c>
-      <c r="L8" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -6702,13 +6684,13 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
+        <v>520</v>
+      </c>
+      <c r="F9" t="s">
+        <v>521</v>
+      </c>
+      <c r="L9" t="s">
         <v>526</v>
-      </c>
-      <c r="F9" t="s">
-        <v>527</v>
-      </c>
-      <c r="L9" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -7285,10 +7267,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7364,10 +7346,10 @@
         <v>2100</v>
       </c>
       <c r="I2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>498</v>
@@ -7385,10 +7367,10 @@
         <v>2100</v>
       </c>
       <c r="I3" t="s">
-        <v>508</v>
-      </c>
-      <c r="L3" t="s">
-        <v>512</v>
+        <v>504</v>
+      </c>
+      <c r="L3">
+        <v>13</v>
       </c>
       <c r="N3" s="25" t="s">
         <v>499</v>
@@ -7406,10 +7388,10 @@
         <v>2100</v>
       </c>
       <c r="I4" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="25" t="s">
@@ -7423,15 +7405,16 @@
       <c r="B5">
         <v>6</v>
       </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="3"/>
       <c r="H5">
         <v>2100</v>
       </c>
       <c r="I5" t="s">
-        <v>508</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>511</v>
+        <v>504</v>
+      </c>
+      <c r="L5" s="4">
+        <v>69</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
@@ -7445,18 +7428,16 @@
       <c r="B6">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="H6">
         <v>2100</v>
       </c>
       <c r="I6" t="s">
-        <v>508</v>
-      </c>
-      <c r="L6" s="4">
-        <v>69</v>
-      </c>
-      <c r="M6" s="4"/>
+        <v>504</v>
+      </c>
+      <c r="L6">
+        <v>90</v>
+      </c>
       <c r="N6" s="4" t="s">
         <v>502</v>
       </c>
@@ -7473,97 +7454,13 @@
         <v>2100</v>
       </c>
       <c r="I7" t="s">
-        <v>508</v>
-      </c>
-      <c r="L7" s="4">
-        <v>94</v>
-      </c>
-      <c r="M7" s="4"/>
+        <v>504</v>
+      </c>
+      <c r="L7">
+        <v>110</v>
+      </c>
       <c r="N7" s="4" t="s">
         <v>503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="H8">
-        <v>2100</v>
-      </c>
-      <c r="I8" t="s">
-        <v>508</v>
-      </c>
-      <c r="L8">
-        <v>90</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="H9">
-        <v>2100</v>
-      </c>
-      <c r="I9" t="s">
-        <v>508</v>
-      </c>
-      <c r="L9">
-        <v>110</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="H10">
-        <v>2100</v>
-      </c>
-      <c r="I10" t="s">
-        <v>508</v>
-      </c>
-      <c r="L10">
-        <v>112</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="H11">
-        <v>2100</v>
-      </c>
-      <c r="I11" t="s">
-        <v>508</v>
-      </c>
-      <c r="L11">
-        <v>28</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -7907,7 +7804,7 @@
         <v>314</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -8106,7 +8003,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8174,7 +8071,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F2">
         <v>50</v>
@@ -8188,7 +8085,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F3">
         <v>45</v>
@@ -8290,7 +8187,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8455,7 +8352,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8481,7 +8378,7 @@
         <v>335</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -8498,7 +8395,7 @@
         <v>337</v>
       </c>
       <c r="E2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
